--- a/doc/keywords.xlsx
+++ b/doc/keywords.xlsx
@@ -122,10 +122,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>input_string(locationType,locatorExpression）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>单击页面元素</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -258,6 +254,22 @@
   </si>
   <si>
     <t>click_link_partial(partial_word)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>input_string(locationType,locatorExpression</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,inputContent）</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -265,7 +277,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,6 +290,20 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -304,12 +330,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -613,19 +642,19 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="45.125" customWidth="1"/>
-    <col min="2" max="2" width="55.75" customWidth="1"/>
+    <col min="2" max="2" width="58.5" customWidth="1"/>
     <col min="3" max="3" width="53" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
         <v>20</v>
@@ -660,7 +689,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -734,134 +763,134 @@
       <c r="A14" t="s">
         <v>25</v>
       </c>
-      <c r="B14" t="s">
-        <v>26</v>
+      <c r="B14" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
         <v>27</v>
-      </c>
-      <c r="B15" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
         <v>34</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
         <v>36</v>
-      </c>
-      <c r="B19" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
         <v>38</v>
-      </c>
-      <c r="B20" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
         <v>40</v>
-      </c>
-      <c r="B21" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s">
         <v>42</v>
-      </c>
-      <c r="B22" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" t="s">
         <v>44</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>45</v>
-      </c>
-      <c r="C23" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" t="s">
         <v>48</v>
-      </c>
-      <c r="C24" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/doc/keywords.xlsx
+++ b/doc/keywords.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>visit_url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -270,6 +270,14 @@
       </rPr>
       <t>,inputContent）</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼠标悬停</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mouse_rover（locationType,locatorExpression）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -639,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -891,6 +899,14 @@
       </c>
       <c r="B29" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/doc/keywords.xlsx
+++ b/doc/keywords.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>visit_url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -270,6 +270,14 @@
       </rPr>
       <t>,inputContent）</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>断言弹出框内容是否存在某关键字或关键字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assert_string_in_alertText(assertString)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -639,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -891,6 +899,14 @@
       </c>
       <c r="B29" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
